--- a/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.01204636536922962</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.00706502809513181</v>
+        <v>0.007065028095131811</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.007059983436106568</v>
@@ -697,7 +697,7 @@
         <v>0.009894605774596067</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.005628897747086799</v>
+        <v>0.005628897747086798</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00274910473743526</v>
+        <v>0.002762278893429064</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003212893446554487</v>
+        <v>0.003135342180429019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002710812666288519</v>
+        <v>0.002713877442874685</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0007554998624571242</v>
+        <v>0.000782544275404744</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003410876124936047</v>
+        <v>0.003366140803706693</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.003945534618955611</v>
+        <v>0.003904923869236292</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.006013419532654935</v>
+        <v>0.006429324900089441</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003287526598624205</v>
+        <v>0.003550370898580219</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.003934320823822874</v>
+        <v>0.004153856680684537</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.004890262792335367</v>
+        <v>0.004722875713822466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005661801181709044</v>
+        <v>0.005632416041570999</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.003069762890439472</v>
+        <v>0.00293673109727904</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01234067347104919</v>
+        <v>0.01298428563257338</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01553511571889236</v>
+        <v>0.01439947646421118</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01647763452447282</v>
+        <v>0.0176787539784174</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01031298411906409</v>
+        <v>0.01110513463752545</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01349256173955599</v>
+        <v>0.01391773097208943</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0143899300101057</v>
+        <v>0.0142820579455831</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02152974643682581</v>
+        <v>0.02226346171097587</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01350989597897554</v>
+        <v>0.01306744656800673</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0113993217533373</v>
+        <v>0.01128544772031178</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01217999702549624</v>
+        <v>0.01201125663008223</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01622863580661491</v>
+        <v>0.01578019517646788</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01017392445406326</v>
+        <v>0.00985191281947947</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007543247548066801</v>
+        <v>0.007923075920928026</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007425875794148178</v>
+        <v>0.007727230801024236</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01146119580685274</v>
+        <v>0.0110501418040379</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01012488893490788</v>
+        <v>0.009865621396480256</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01074522698641661</v>
+        <v>0.01014929253899994</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004555323002444702</v>
+        <v>0.004421938947715741</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.009714743367809146</v>
+        <v>0.009987340771785529</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01267576733955314</v>
+        <v>0.01258951836539993</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01022102064773096</v>
+        <v>0.01066386747450092</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00693034765004481</v>
+        <v>0.00728841913693978</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0118727631348756</v>
+        <v>0.01187655983062132</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01238138652110063</v>
+        <v>0.01261264016059684</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01918846429290015</v>
+        <v>0.0190843333812571</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.019723084950481</v>
+        <v>0.01917447873574094</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02284202931466476</v>
+        <v>0.02271005742875343</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02238320509614522</v>
+        <v>0.02199829252446506</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02368856393724643</v>
+        <v>0.02317701159531597</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01372637659733705</v>
+        <v>0.01334372530603667</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02191227030129383</v>
+        <v>0.02177422077504183</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02323072294861792</v>
+        <v>0.0230885638746051</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01894629212346415</v>
+        <v>0.01899412415631618</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01450883092099205</v>
+        <v>0.01446944263205495</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02019760650640395</v>
+        <v>0.02004230431840668</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02015027519282273</v>
+        <v>0.02046120536676607</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.04129110023936846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04091043214849217</v>
+        <v>0.04091043214849216</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04119215811171813</v>
@@ -969,7 +969,7 @@
         <v>0.04195243686264587</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04856614757067318</v>
+        <v>0.04856614757067316</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02046261423920272</v>
+        <v>0.01993933188773028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01360849517254836</v>
+        <v>0.01288686442024398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02628157961471725</v>
+        <v>0.02662821685466144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02699561898129013</v>
+        <v>0.02787049710570702</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02494238514049496</v>
+        <v>0.02508106675587597</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02517564600119252</v>
+        <v>0.02466338462697889</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02794547365883723</v>
+        <v>0.02733823519129746</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04296427995398266</v>
+        <v>0.04197663292226467</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02622442902429118</v>
+        <v>0.02532400437671347</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02263605662913194</v>
+        <v>0.02248009103673287</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03117086797703113</v>
+        <v>0.03203154520940856</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03965532054529524</v>
+        <v>0.03922349336818107</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05265590407368213</v>
+        <v>0.05273867057443929</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04625895544680753</v>
+        <v>0.04556430836228928</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0632291770226692</v>
+        <v>0.06322432606540523</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05896832003032151</v>
+        <v>0.05855617550191979</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06219728773543323</v>
+        <v>0.06387573237775937</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0667452426391852</v>
+        <v>0.06810182245972987</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06380385045815323</v>
+        <v>0.06369994105775413</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07334200736606947</v>
+        <v>0.07260894817514267</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05245121399359351</v>
+        <v>0.0505448212142913</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04947412591660561</v>
+        <v>0.04782748246209711</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05784014683605679</v>
+        <v>0.05772980993309675</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05995660030190979</v>
+        <v>0.06211562855079463</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01845621372556352</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02053093371808245</v>
+        <v>0.02053093371808246</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01040876009690163</v>
+        <v>0.01050007968090489</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009295979495319365</v>
+        <v>0.009244986334986743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01390000425179228</v>
+        <v>0.01367975422842958</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01374724429555112</v>
+        <v>0.01377350789495043</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01187234438377257</v>
+        <v>0.01222716808264533</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.009004176989677442</v>
+        <v>0.008513912619377903</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01427563933382321</v>
+        <v>0.01376879189008773</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01916159223367768</v>
+        <v>0.01861432953144687</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01228649801512709</v>
+        <v>0.0124731425584303</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.009980201522813408</v>
+        <v>0.01013740050244818</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01494363836393249</v>
+        <v>0.01512316041868025</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01762542801464726</v>
+        <v>0.01727824625422995</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01880544140780325</v>
+        <v>0.01909775885376024</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01763046044921685</v>
+        <v>0.01736658293865134</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02378829564424532</v>
+        <v>0.02356439581364354</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0235259820963146</v>
+        <v>0.02373828907489203</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0210829211882431</v>
+        <v>0.02153900608299412</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0168936613931273</v>
+        <v>0.01719484327886264</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02358419421769875</v>
+        <v>0.02380567035594149</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02748408094017265</v>
+        <v>0.02758509081836413</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01837811888399054</v>
+        <v>0.01850212570741089</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01564823567202136</v>
+        <v>0.01573101432349578</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02197753199834727</v>
+        <v>0.02208720266830553</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02391028391033293</v>
+        <v>0.02396950110890284</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2831</v>
+        <v>2845</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3102</v>
+        <v>3027</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4486</v>
+        <v>4427</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5234</v>
+        <v>5180</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5921</v>
+        <v>6331</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2698</v>
+        <v>2914</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9226</v>
+        <v>9741</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11209</v>
+        <v>10825</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9830</v>
+        <v>9779</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4293</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12709</v>
+        <v>13372</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15000</v>
+        <v>13903</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12384</v>
+        <v>13286</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5959</v>
+        <v>6417</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17744</v>
+        <v>18303</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19089</v>
+        <v>18946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21200</v>
+        <v>21923</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11087</v>
+        <v>10724</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>26731</v>
+        <v>26464</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>27918</v>
+        <v>27531</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>28177</v>
+        <v>27398</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>14228</v>
+        <v>13778</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12741</v>
+        <v>13383</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14501</v>
+        <v>15090</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23707</v>
+        <v>22857</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22575</v>
+        <v>21997</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17038</v>
+        <v>16093</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7935</v>
+        <v>7702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19200</v>
+        <v>19739</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>27483</v>
+        <v>27296</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>33471</v>
+        <v>34922</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>25605</v>
+        <v>26928</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>48024</v>
+        <v>48039</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>54451</v>
+        <v>55468</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>32411</v>
+        <v>32235</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38515</v>
+        <v>37444</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>47248</v>
+        <v>46975</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>49907</v>
+        <v>49049</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37562</v>
+        <v>36751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>23909</v>
+        <v>23243</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>43307</v>
+        <v>43035</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>50368</v>
+        <v>50060</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>62045</v>
+        <v>62201</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>53605</v>
+        <v>53459</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>81697</v>
+        <v>81069</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>88618</v>
+        <v>89985</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11283</v>
+        <v>10995</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6481</v>
+        <v>6137</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14373</v>
+        <v>14563</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19210</v>
+        <v>19832</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11883</v>
+        <v>11949</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11473</v>
+        <v>11239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15346</v>
+        <v>15013</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>31573</v>
+        <v>30848</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>26954</v>
+        <v>26029</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21095</v>
+        <v>20950</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>34164</v>
+        <v>35107</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>57360</v>
+        <v>56735</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29035</v>
+        <v>29081</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22029</v>
+        <v>21698</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34579</v>
+        <v>34576</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41961</v>
+        <v>41668</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29632</v>
+        <v>30431</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>30416</v>
+        <v>31035</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35037</v>
+        <v>34980</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>53897</v>
+        <v>53359</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>53910</v>
+        <v>51951</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>46106</v>
+        <v>44572</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>63394</v>
+        <v>63273</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>86725</v>
+        <v>89848</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>34041</v>
+        <v>34339</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>31556</v>
+        <v>31383</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>46800</v>
+        <v>46059</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>48378</v>
+        <v>48470</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>40095</v>
+        <v>41293</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>31732</v>
+        <v>30004</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>50111</v>
+        <v>48332</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>71352</v>
+        <v>69314</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>81675</v>
+        <v>82916</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>69050</v>
+        <v>70137</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>102770</v>
+        <v>104004</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>127657</v>
+        <v>125143</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>61501</v>
+        <v>62457</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>59848</v>
+        <v>58952</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>80093</v>
+        <v>79339</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>82790</v>
+        <v>83538</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>71201</v>
+        <v>72741</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>59535</v>
+        <v>60597</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>82786</v>
+        <v>83564</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>102342</v>
+        <v>102718</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>122170</v>
+        <v>122994</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>108265</v>
+        <v>108838</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>151143</v>
+        <v>151897</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>173177</v>
+        <v>173606</v>
       </c>
     </row>
     <row r="20">
